--- a/biology/Botanique/Mesosini/Mesosini.xlsx
+++ b/biology/Botanique/Mesosini/Mesosini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mesosini sont une tribu de coléoptères cérambycidés de la sous-famille des Lamiinae répandue surtout dans l'Asie tropicale avec presque 600 espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mesosini sont une tribu de coléoptères cérambycidés de la sous-famille des Lamiinae répandue surtout dans l'Asie tropicale avec presque 600 espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mesosini sont caractérisés par un aspect plus ou moins trapu et aplati, une coloration généralement mimétique avec les écorces, mais  surtout le scape portant une carène (cicatrise) proéminente qui lui donne un typique aspect triangulaire[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mesosini sont caractérisés par un aspect plus ou moins trapu et aplati, une coloration généralement mimétique avec les écorces, mais  surtout le scape portant une carène (cicatrise) proéminente qui lui donne un typique aspect triangulaire
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aemocia
@@ -606,8 +622,43 @@
 Therippia
 Trichomesosa
 Zelota
-Liste des genres présents en France
-Les Mesosini françaises ne comprennent qu'un genre avec deux espèces seulement[3],[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mesosini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mesosini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres présents en France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Mesosini françaises ne comprennent qu'un genre avec deux espèces seulement, :
 genre Mesosa Latreille, 1829
 sous-genre Mesosa Latreille, 1829
 Mesosa curculionoides (Linné, 1761)
